--- a/BestCruiseFramework/src/test/resources/excel/testdata.xlsx
+++ b/BestCruiseFramework/src/test/resources/excel/testdata.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\eclipse-workspace\BestCruiseFramework\src\test\resources\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git\BestCruiseFramework\BestCruiseFramework\src\test\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18180" windowHeight="2700"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18180" windowHeight="2700" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="singleCruiseTest" sheetId="1" r:id="rId1"/>
+    <sheet name="parameterizedSearchTest" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="34">
   <si>
     <t>Y</t>
   </si>
@@ -81,6 +82,51 @@
   </si>
   <si>
     <t>cruiseLisbon2504Kiel0205</t>
+  </si>
+  <si>
+    <t>region</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>initialPort</t>
+  </si>
+  <si>
+    <t>minCruiseLength</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>BritishIslands</t>
+  </si>
+  <si>
+    <t>GreatBritain</t>
+  </si>
+  <si>
+    <t>Genoa</t>
+  </si>
+  <si>
+    <t>NearEast</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>Marseille</t>
+  </si>
+  <si>
+    <t>Africa</t>
+  </si>
+  <si>
+    <t>AnyCountry</t>
+  </si>
+  <si>
+    <t>Rome</t>
+  </si>
+  <si>
+    <t>20 июнь</t>
   </si>
 </sst>
 </file>
@@ -403,8 +449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -538,4 +584,107 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="12.46484375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.265625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.46484375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.1328125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.796875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="1">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="1">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="1">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="1">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="1">
+        <v>7</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="1">
+        <v>100000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/BestCruiseFramework/src/test/resources/excel/testdata.xlsx
+++ b/BestCruiseFramework/src/test/resources/excel/testdata.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="36">
   <si>
     <t>Y</t>
   </si>
@@ -127,6 +127,12 @@
   </si>
   <si>
     <t>20 июнь</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Savona</t>
   </si>
 </sst>
 </file>
@@ -450,7 +456,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -561,7 +567,7 @@
         <v>40000</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
@@ -588,10 +594,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -604,7 +610,7 @@
     <col min="6" max="6" width="17" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -623,8 +629,11 @@
       <c r="F1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -643,8 +652,11 @@
       <c r="F2" s="1">
         <v>60000</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G2" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
@@ -663,8 +675,11 @@
       <c r="F3" s="1">
         <v>60000</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G3" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>30</v>
       </c>
@@ -681,7 +696,33 @@
         <v>33</v>
       </c>
       <c r="F4" s="1">
-        <v>100000</v>
+        <v>60000</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="1">
+        <v>7</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="1">
+        <v>60000</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/BestCruiseFramework/src/test/resources/excel/testdata.xlsx
+++ b/BestCruiseFramework/src/test/resources/excel/testdata.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18180" windowHeight="2700" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18180" windowHeight="2700"/>
   </bookViews>
   <sheets>
     <sheet name="singleCruiseTest" sheetId="1" r:id="rId1"/>
-    <sheet name="parameterizedSearchTest" sheetId="2" r:id="rId2"/>
+    <sheet name="parameterizedSearchTest" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="44">
   <si>
     <t>Y</t>
   </si>
@@ -90,9 +91,6 @@
     <t>country</t>
   </si>
   <si>
-    <t>initialPort</t>
-  </si>
-  <si>
     <t>minCruiseLength</t>
   </si>
   <si>
@@ -133,6 +131,33 @@
   </si>
   <si>
     <t>Savona</t>
+  </si>
+  <si>
+    <t>Genoa_Israel</t>
+  </si>
+  <si>
+    <t>Rome_Africa</t>
+  </si>
+  <si>
+    <t>Savona_GreatBritain</t>
+  </si>
+  <si>
+    <t>Marseille_GreatBritain</t>
+  </si>
+  <si>
+    <t>departurePort</t>
+  </si>
+  <si>
+    <t>Genoa_GreatBritain</t>
+  </si>
+  <si>
+    <t>Rome_GreatBritain</t>
+  </si>
+  <si>
+    <t>https://www.cruclub.ru/offer/104648/</t>
+  </si>
+  <si>
+    <t>cruiseHamburg2904Hamburg0305Southampton</t>
   </si>
 </sst>
 </file>
@@ -453,15 +478,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="30.9296875" customWidth="1"/>
+    <col min="1" max="1" width="41.46484375" customWidth="1"/>
     <col min="2" max="2" width="37" customWidth="1"/>
     <col min="3" max="3" width="32.6640625" customWidth="1"/>
     <col min="4" max="4" width="19.33203125" customWidth="1"/>
@@ -567,7 +592,7 @@
         <v>40000</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
@@ -584,6 +609,23 @@
         <v>40000</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>40000</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -594,134 +636,299 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.46484375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.265625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.46484375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.1328125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.796875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.59765625" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.86328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.59765625" customWidth="1"/>
+    <col min="5" max="5" width="16.1328125" customWidth="1"/>
+    <col min="6" max="6" width="9.06640625" style="1"/>
+    <col min="7" max="7" width="12.53125" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="1">
+        <v>7</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="1">
+        <v>60000</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="1">
+        <v>7</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="1">
+        <v>60000</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="1">
+        <v>7</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="1">
+        <v>60000</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="27.46484375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="1">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="1">
+        <v>60000</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="1">
+        <v>7</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="1">
+        <v>60000</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="1">
+        <v>7</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="1">
+        <v>60000</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A2" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="1">
+        <v>7</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="1">
+        <v>60000</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="1">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" s="1">
+      <c r="E5" s="1">
+        <v>7</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="1">
         <v>60000</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="1">
-        <v>7</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="1">
+      <c r="H5" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="1">
+        <v>7</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="1">
         <v>60000</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="1">
-        <v>7</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" s="1">
-        <v>60000</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="1">
-        <v>7</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" s="1">
-        <v>60000</v>
-      </c>
-      <c r="G5" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>0</v>
       </c>
     </row>

--- a/BestCruiseFramework/src/test/resources/excel/testdata.xlsx
+++ b/BestCruiseFramework/src/test/resources/excel/testdata.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18180" windowHeight="2700"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18180" windowHeight="2700" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="singleCruiseTest" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="45">
   <si>
     <t>Y</t>
   </si>
@@ -158,6 +158,9 @@
   </si>
   <si>
     <t>cruiseHamburg2904Hamburg0305Southampton</t>
+  </si>
+  <si>
+    <t>Rome_Israel</t>
   </si>
 </sst>
 </file>
@@ -480,7 +483,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+    <sheetView zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -636,10 +639,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:H4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -700,7 +703,7 @@
         <v>32</v>
       </c>
       <c r="G2" s="1">
-        <v>60000</v>
+        <v>45000</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>0</v>
@@ -708,7 +711,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>23</v>
@@ -717,7 +720,7 @@
         <v>24</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E3" s="1">
         <v>7</v>
@@ -726,7 +729,7 @@
         <v>32</v>
       </c>
       <c r="G3" s="1">
-        <v>60000</v>
+        <v>45000</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>0</v>
@@ -752,9 +755,87 @@
         <v>32</v>
       </c>
       <c r="G4" s="1">
-        <v>60000</v>
+        <v>45000</v>
       </c>
       <c r="H4" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="1">
+        <v>7</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="1">
+        <v>45000</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="1">
+        <v>7</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="1">
+        <v>45000</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="1">
+        <v>7</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="1">
+        <v>45000</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -768,7 +849,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:H5"/>
+      <selection activeCell="A6" sqref="A6:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/BestCruiseFramework/src/test/resources/excel/testdata.xlsx
+++ b/BestCruiseFramework/src/test/resources/excel/testdata.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18180" windowHeight="2700" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18180" windowHeight="2700"/>
   </bookViews>
   <sheets>
     <sheet name="singleCruiseTest" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="49">
   <si>
     <t>Y</t>
   </si>
@@ -161,6 +161,18 @@
   </si>
   <si>
     <t>Rome_Israel</t>
+  </si>
+  <si>
+    <t>cruiseRostock0509Lisbon1409</t>
+  </si>
+  <si>
+    <t>https://www.cruclub.ru/offer/105749/</t>
+  </si>
+  <si>
+    <t>cruiseRostock0509Vigo1309</t>
+  </si>
+  <si>
+    <t>https://www.cruclub.ru/offer/107846/</t>
   </si>
 </sst>
 </file>
@@ -481,10 +493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -632,6 +644,40 @@
         <v>0</v>
       </c>
     </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <v>40000</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10">
+        <v>40000</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -641,7 +687,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>

--- a/BestCruiseFramework/src/test/resources/excel/testdata.xlsx
+++ b/BestCruiseFramework/src/test/resources/excel/testdata.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18180" windowHeight="2700"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18180" windowHeight="2700" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="singleCruiseTest" sheetId="1" r:id="rId1"/>
@@ -85,18 +85,9 @@
     <t>cruiseLisbon2504Kiel0205</t>
   </si>
   <si>
-    <t>region</t>
-  </si>
-  <si>
-    <t>country</t>
-  </si>
-  <si>
     <t>minCruiseLength</t>
   </si>
   <si>
-    <t>date</t>
-  </si>
-  <si>
     <t>BritishIslands</t>
   </si>
   <si>
@@ -173,6 +164,15 @@
   </si>
   <si>
     <t>https://www.cruclub.ru/offer/107846/</t>
+  </si>
+  <si>
+    <t>destinationRegion</t>
+  </si>
+  <si>
+    <t>destinationCountry</t>
+  </si>
+  <si>
+    <t>beforeDate</t>
   </si>
 </sst>
 </file>
@@ -495,7 +495,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+    <sheetView zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -629,10 +629,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
@@ -646,10 +646,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C9" t="s">
         <v>7</v>
@@ -663,10 +663,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C10" t="s">
         <v>7</v>
@@ -687,18 +687,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="20.59765625" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.86328125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.59765625" customWidth="1"/>
-    <col min="5" max="5" width="16.1328125" customWidth="1"/>
-    <col min="6" max="6" width="9.06640625" style="1"/>
+    <col min="1" max="1" width="19.1328125" customWidth="1"/>
+    <col min="2" max="2" width="16.9296875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.796875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.06640625" customWidth="1"/>
+    <col min="5" max="5" width="13.9296875" customWidth="1"/>
+    <col min="6" max="6" width="11.06640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="12.53125" customWidth="1"/>
     <col min="8" max="8" width="12.6640625" customWidth="1"/>
   </cols>
@@ -708,19 +708,19 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E1" t="s">
-        <v>21</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="G1" t="s">
         <v>10</v>
@@ -731,22 +731,22 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E2" s="1">
         <v>7</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G2" s="1">
         <v>45000</v>
@@ -757,22 +757,22 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E3" s="1">
         <v>7</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G3" s="1">
         <v>45000</v>
@@ -783,22 +783,22 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E4" s="1">
         <v>7</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G4" s="1">
         <v>45000</v>
@@ -809,22 +809,22 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E5" s="1">
         <v>7</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G5" s="1">
         <v>45000</v>
@@ -835,22 +835,22 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E6" s="1">
         <v>7</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G6" s="1">
         <v>45000</v>
@@ -861,22 +861,22 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E7" s="1">
         <v>7</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G7" s="1">
         <v>45000</v>
@@ -905,48 +905,48 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E1" s="1">
         <v>7</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G1" s="1">
         <v>60000</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E2" s="1">
         <v>7</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G2" s="1">
         <v>60000</v>
@@ -957,22 +957,22 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E3" s="1">
         <v>7</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G3" s="1">
         <v>60000</v>
@@ -983,22 +983,22 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E4" s="1">
         <v>7</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G4" s="1">
         <v>60000</v>
@@ -1009,22 +1009,22 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E5" s="1">
         <v>7</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G5" s="1">
         <v>60000</v>
@@ -1035,22 +1035,22 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E6" s="1">
         <v>7</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G6" s="1">
         <v>60000</v>

--- a/BestCruiseFramework/src/test/resources/excel/testdata.xlsx
+++ b/BestCruiseFramework/src/test/resources/excel/testdata.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18180" windowHeight="2700" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18180" windowHeight="2700"/>
   </bookViews>
   <sheets>
     <sheet name="singleCruiseTest" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="47">
   <si>
     <t>Y</t>
   </si>
@@ -50,12 +50,6 @@
   </si>
   <si>
     <t>ctl00_Content_ctlOffer_ctlPrice_lblPrice</t>
-  </si>
-  <si>
-    <t>cruiseRome2702Rome0903Haifa</t>
-  </si>
-  <si>
-    <t>https://www.cruclub.ru/offer/107165/</t>
   </si>
   <si>
     <t>priceLimit</t>
@@ -493,10 +487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -519,7 +513,7 @@
         <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -544,7 +538,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
@@ -612,10 +606,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
         <v>7</v>
@@ -632,7 +626,7 @@
         <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
@@ -658,23 +652,6 @@
         <v>40000</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10">
-        <v>40000</v>
-      </c>
-      <c r="E10" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -687,7 +664,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -708,22 +685,22 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="G1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H1" t="s">
         <v>1</v>
@@ -731,22 +708,22 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2" s="1">
         <v>7</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G2" s="1">
         <v>45000</v>
@@ -757,22 +734,22 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="E3" s="1">
         <v>7</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G3" s="1">
         <v>45000</v>
@@ -783,22 +760,22 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E4" s="1">
         <v>7</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G4" s="1">
         <v>45000</v>
@@ -809,22 +786,22 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E5" s="1">
         <v>7</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G5" s="1">
         <v>45000</v>
@@ -835,22 +812,22 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E6" s="1">
         <v>7</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G6" s="1">
         <v>45000</v>
@@ -861,22 +838,22 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E7" s="1">
         <v>7</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G7" s="1">
         <v>45000</v>
@@ -905,48 +882,48 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E1" s="1">
         <v>7</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G1" s="1">
         <v>60000</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2" s="1">
         <v>7</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G2" s="1">
         <v>60000</v>
@@ -957,22 +934,22 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="E3" s="1">
         <v>7</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G3" s="1">
         <v>60000</v>
@@ -983,22 +960,22 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E4" s="1">
         <v>7</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G4" s="1">
         <v>60000</v>
@@ -1009,22 +986,22 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="E5" s="1">
         <v>7</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G5" s="1">
         <v>60000</v>
@@ -1035,22 +1012,22 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E6" s="1">
         <v>7</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G6" s="1">
         <v>60000</v>

--- a/BestCruiseFramework/src/test/resources/excel/testdata.xlsx
+++ b/BestCruiseFramework/src/test/resources/excel/testdata.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18180" windowHeight="2700"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18180" windowHeight="2700" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="singleCruiseTest" sheetId="1" r:id="rId1"/>
@@ -26,59 +26,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="37">
   <si>
     <t>Y</t>
   </si>
   <si>
-    <t>runmode</t>
-  </si>
-  <si>
     <t>cruiseName</t>
   </si>
   <si>
-    <t>cruiseGenoa2903Hamburg0804</t>
-  </si>
-  <si>
     <t>link</t>
   </si>
   <si>
-    <t>https://www.cruclub.ru/offer/104738/</t>
-  </si>
-  <si>
-    <t>priceTag</t>
-  </si>
-  <si>
-    <t>ctl00_Content_ctlOffer_ctlPrice_lblPrice</t>
-  </si>
-  <si>
     <t>priceLimit</t>
   </si>
   <si>
-    <t>https://www.cruclub.ru/offer/107166/</t>
-  </si>
-  <si>
-    <t>cruiseRome2003Rome3103Haifa</t>
-  </si>
-  <si>
-    <t>https://www.cruclub.ru/offer/102570/</t>
-  </si>
-  <si>
-    <t>cruiseGenoa0305copenhagen1605</t>
-  </si>
-  <si>
-    <t>https://www.cruclub.ru/offer/102470/</t>
-  </si>
-  <si>
-    <t>cruiseMarseille1605Stockholm3005</t>
-  </si>
-  <si>
-    <t>https://www.cruclub.ru/offer/106650/</t>
-  </si>
-  <si>
-    <t>cruiseLisbon2504Kiel0205</t>
-  </si>
-  <si>
     <t>minCruiseLength</t>
   </si>
   <si>
@@ -139,27 +100,6 @@
     <t>Rome_GreatBritain</t>
   </si>
   <si>
-    <t>https://www.cruclub.ru/offer/104648/</t>
-  </si>
-  <si>
-    <t>cruiseHamburg2904Hamburg0305Southampton</t>
-  </si>
-  <si>
-    <t>Rome_Israel</t>
-  </si>
-  <si>
-    <t>cruiseRostock0509Lisbon1409</t>
-  </si>
-  <si>
-    <t>https://www.cruclub.ru/offer/105749/</t>
-  </si>
-  <si>
-    <t>cruiseRostock0509Vigo1309</t>
-  </si>
-  <si>
-    <t>https://www.cruclub.ru/offer/107846/</t>
-  </si>
-  <si>
     <t>destinationRegion</t>
   </si>
   <si>
@@ -167,16 +107,54 @@
   </si>
   <si>
     <t>beforeDate</t>
+  </si>
+  <si>
+    <t>https://www.cruclub.ru/offer/107217/</t>
+  </si>
+  <si>
+    <t>cruiseRome2411Rome0512Haifa</t>
+  </si>
+  <si>
+    <t>https://www.cruclub.ru/offer/104612/</t>
+  </si>
+  <si>
+    <t>cruiseRome1612Rome2712Haifa</t>
+  </si>
+  <si>
+    <t>https://www.cruclub.ru/offer/104609/</t>
+  </si>
+  <si>
+    <t>cruiseRome0701Rome1801Haifa</t>
+  </si>
+  <si>
+    <t>Mediterranean</t>
+  </si>
+  <si>
+    <t>AnyCity</t>
+  </si>
+  <si>
+    <t>1 февраль</t>
+  </si>
+  <si>
+    <t>SkipCountry</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -199,16 +177,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -487,379 +470,159 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="41.46484375" customWidth="1"/>
-    <col min="2" max="2" width="37" customWidth="1"/>
-    <col min="3" max="3" width="32.6640625" customWidth="1"/>
-    <col min="4" max="4" width="19.33203125" customWidth="1"/>
-    <col min="5" max="5" width="9.06640625" style="1"/>
+    <col min="1" max="1" width="41.46484375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="37" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2">
-        <v>40000</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3">
-        <v>40000</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4">
-        <v>40000</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5">
-        <v>40000</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6">
-        <v>40000</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7">
-        <v>40000</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8">
-        <v>40000</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9">
-        <v>40000</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>0</v>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="1">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="1">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="1">
+        <v>30000</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="19.1328125" customWidth="1"/>
+    <col min="1" max="1" width="19.1328125" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.9296875" style="1" customWidth="1"/>
     <col min="3" max="3" width="19.796875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.06640625" customWidth="1"/>
-    <col min="5" max="5" width="13.9296875" customWidth="1"/>
+    <col min="4" max="4" width="13.06640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.9296875" style="1" customWidth="1"/>
     <col min="6" max="6" width="11.06640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.53125" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" customWidth="1"/>
+    <col min="7" max="7" width="12.53125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="1">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="1">
-        <v>7</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="1">
-        <v>45000</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A3" s="1" t="s">
+      <c r="E3" s="1">
+        <v>6</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="1">
-        <v>7</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="G3" s="1">
-        <v>45000</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="1">
-        <v>7</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="1">
-        <v>45000</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="1">
-        <v>7</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="1">
-        <v>45000</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="1">
-        <v>7</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="1">
-        <v>45000</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="1">
-        <v>7</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="1">
-        <v>45000</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>0</v>
+        <v>30000</v>
       </c>
     </row>
   </sheetData>
@@ -882,48 +645,48 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E1" s="1">
         <v>7</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="G1" s="1">
         <v>60000</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E2" s="1">
         <v>7</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="G2" s="1">
         <v>60000</v>
@@ -934,22 +697,22 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E3" s="1">
         <v>7</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="G3" s="1">
         <v>60000</v>
@@ -960,22 +723,22 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E4" s="1">
         <v>7</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="G4" s="1">
         <v>60000</v>
@@ -986,22 +749,22 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E5" s="1">
         <v>7</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="G5" s="1">
         <v>60000</v>
@@ -1012,22 +775,22 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E6" s="1">
         <v>7</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="G6" s="1">
         <v>60000</v>

--- a/BestCruiseFramework/src/test/resources/excel/testdata.xlsx
+++ b/BestCruiseFramework/src/test/resources/excel/testdata.xlsx
@@ -542,7 +542,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -599,7 +599,7 @@
         <v>35</v>
       </c>
       <c r="G2" s="1">
-        <v>30000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
@@ -622,7 +622,7 @@
         <v>35</v>
       </c>
       <c r="G3" s="1">
-        <v>30000</v>
+        <v>50000</v>
       </c>
     </row>
   </sheetData>

--- a/BestCruiseFramework/src/test/resources/excel/testdata.xlsx
+++ b/BestCruiseFramework/src/test/resources/excel/testdata.xlsx
@@ -542,7 +542,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -590,7 +590,7 @@
         <v>36</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E2" s="1">
         <v>6</v>
